--- a/biology/Botanique/Liste_des_plantes_de_la_Bible/Liste_des_plantes_de_la_Bible.xlsx
+++ b/biology/Botanique/Liste_des_plantes_de_la_Bible/Liste_des_plantes_de_la_Bible.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La présente liste des plantes de la Bible (non exhaustive) recense les plantes mentionnées dans la Bible, classées dans l'ordre alphabétique des noms communs. Pour les plantes dont l'identité n'est pas confirmée ou débattue, les espèces les plus probables sont répertoriées. Les plantes nommées dans l'Ancien Testament (Bible hébraïque ou Tanakh) sont données avec leur nom  hébreu, tandis que celles mentionnées dans le Nouveau Testament sont données avec leurs noms  grec.
@@ -513,7 +525,9 @@
           <t>Topographie et climat d'Israël</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Israël biblique se composait des régions à l'ouest et à l'est du Jourdain. Il bordait l'Assyrie au nord et l'Égypte au sud.
 La flore d'Israël n'a pas changé de manière significative au cours des derniers millénaires, car aucun changement climatique majeur n'a eu lieu.
@@ -546,13 +560,15 @@
           <t>Détermination du nom des plantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans leur ouvrage Plants of the Bible publié en 1952, et considéré comme l'ouvrage de référence sur les plantes bibliques, les botanistes Harold et Alma Moldenke ont comparé les vues des chercheurs bibliques sur les plantes qui les avaient précédés sur une période de 400 ans et celles des traducteurs de la version anglaise de la Bible, et ont créé leur propre liste de 242 taxons[1]. 
-En 1982, Michael Zohary a publié un ouvrage, Plants of the Bible dans lequel il a répertorié et illustré 200 taxons de plantes bibliques[2].
-En 1992, Frank Nigel Hepper, directeur du célèbre jardin botanique de Kew en Grande-Bretagne[3], a compilé sa propre liste d'environ 180 espèces de plantes bibliques, qu'il a regroupées par thème[4].
-Plusieurs publications résumant les travaux sur les plantes bibliques ont été préparées par le botaniste israélien, Noga Hareuveni (en), dans les années 1988–1996[3]. L'ouvrage le plus récent est celui de Jean et Solange Maillat publié en 1999[5], qui recense 174 espèces de plantes bibliques[6].
-L'auteur polonais, Zofia Włodarczyk (professeure à université d'agriculture Hugo-Kołłątaj de Cracovie), a recensé 290 taxons dans les textes sur la flore biblique parus depuis 1952, et en a retenu 206 après avoir éliminé les synonymes, les espèces proches et les variétés botaniques qui concernent la même plante dans la Bible. Le résultat de ses analyses comparatives[3] montrent que sur ces 206 taxons tous les chercheurs, à savoir Moldenke et Moldenke (1952), Zohary (1982), Hepper (1992) et Maillat et Maillat (1999), sont jusqu'à présent d'accord sur l'identification de 95 espèces, qui à ce titre peuvent être considérée comme universellement acceptée. Certains chercheurs sont d'accord, tandis que d'autres ne soulèvent aucune objection sur l'identification de 111 espèces. Enfin pour environ 50 espèces, le niveau d'incertitude est élevé[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans leur ouvrage Plants of the Bible publié en 1952, et considéré comme l'ouvrage de référence sur les plantes bibliques, les botanistes Harold et Alma Moldenke ont comparé les vues des chercheurs bibliques sur les plantes qui les avaient précédés sur une période de 400 ans et celles des traducteurs de la version anglaise de la Bible, et ont créé leur propre liste de 242 taxons. 
+En 1982, Michael Zohary a publié un ouvrage, Plants of the Bible dans lequel il a répertorié et illustré 200 taxons de plantes bibliques.
+En 1992, Frank Nigel Hepper, directeur du célèbre jardin botanique de Kew en Grande-Bretagne, a compilé sa propre liste d'environ 180 espèces de plantes bibliques, qu'il a regroupées par thème.
+Plusieurs publications résumant les travaux sur les plantes bibliques ont été préparées par le botaniste israélien, Noga Hareuveni (en), dans les années 1988–1996. L'ouvrage le plus récent est celui de Jean et Solange Maillat publié en 1999, qui recense 174 espèces de plantes bibliques.
+L'auteur polonais, Zofia Włodarczyk (professeure à université d'agriculture Hugo-Kołłątaj de Cracovie), a recensé 290 taxons dans les textes sur la flore biblique parus depuis 1952, et en a retenu 206 après avoir éliminé les synonymes, les espèces proches et les variétés botaniques qui concernent la même plante dans la Bible. Le résultat de ses analyses comparatives montrent que sur ces 206 taxons tous les chercheurs, à savoir Moldenke et Moldenke (1952), Zohary (1982), Hepper (1992) et Maillat et Maillat (1999), sont jusqu'à présent d'accord sur l'identification de 95 espèces, qui à ce titre peuvent être considérée comme universellement acceptée. Certains chercheurs sont d'accord, tandis que d'autres ne soulèvent aucune objection sur l'identification de 111 espèces. Enfin pour environ 50 espèces, le niveau d'incertitude est élevé.
 </t>
         </is>
       </c>
@@ -582,6 +598,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
